--- a/input_files/static/SP Global weighted mean mine parameters.xlsx
+++ b/input_files/static/SP Global weighted mean mine parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnryter/Dropbox (MIT)/John MIT/Research/generalizationOutside/generalization/input_files/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD609AF-BB56-814B-AE7D-CE7E4034767D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8542EE-C63C-D34E-89D6-BC5CCC3C1DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{D7B207C6-DB8A-1A4A-A20B-FF97519B0DB3}"/>
   </bookViews>
@@ -55,34 +55,34 @@
     <t>In [508]:</t>
   </si>
   <si>
-    <t>Cobalt</t>
+    <t>Co</t>
   </si>
   <si>
-    <t>Copper</t>
+    <t>Cu</t>
   </si>
   <si>
-    <t>Gold</t>
+    <t>Au</t>
   </si>
   <si>
-    <t>Lead</t>
+    <t>Pb</t>
   </si>
   <si>
-    <t>Molybdenum</t>
+    <t>Mo</t>
   </si>
   <si>
-    <t>Nickel</t>
+    <t>Ni</t>
   </si>
   <si>
-    <t>Palladium</t>
+    <t>Pd</t>
   </si>
   <si>
-    <t>Platinum</t>
+    <t>Pt</t>
   </si>
   <si>
-    <t>Silver</t>
+    <t>Ag</t>
   </si>
   <si>
-    <t>Zinc</t>
+    <t>Zn</t>
   </si>
 </sst>
 </file>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25DDE9CA-8B41-3A4E-A7B6-6121FBFBDB26}">
   <dimension ref="A1:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
